--- a/Project/University Project/Excel University.xlsx
+++ b/Project/University Project/Excel University.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ertuğrul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e_kur\Documents\Clarusway\Database-Modelling-And-Design\Project\University Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1847A0E-8392-466F-BB1A-5AF7674A76A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B2B4D4-2AA9-4DCD-A9C3-BF2B54EEC01A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="960" windowWidth="15105" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="1080" windowWidth="20925" windowHeight="13305" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="93">
   <si>
     <t>Student ID</t>
   </si>
   <si>
-    <t>Register ID</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>EEE 352</t>
   </si>
   <si>
-    <t>EEE 452</t>
-  </si>
-  <si>
     <t>EEE 301</t>
   </si>
   <si>
@@ -224,21 +218,12 @@
     <t>EEE 101</t>
   </si>
   <si>
-    <t>EEE 406</t>
-  </si>
-  <si>
     <t>Digital Analysis</t>
   </si>
   <si>
-    <t>EEE 475</t>
-  </si>
-  <si>
     <t>High Voltage</t>
   </si>
   <si>
-    <t>EEE401</t>
-  </si>
-  <si>
     <t>EEE 340</t>
   </si>
   <si>
@@ -321,6 +306,9 @@
   </si>
   <si>
     <t>Scortland</t>
+  </si>
+  <si>
+    <t>StaffID</t>
   </si>
 </sst>
 </file>
@@ -668,35 +656,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -704,353 +691,305 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>201910010</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43713</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>201910017</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
-        <v>201910010</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
         <v>2019</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E3" s="5">
         <v>43713</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>201910024</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
-        <v>201910017</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
         <v>2019</v>
       </c>
-      <c r="F3" s="5">
-        <v>43713</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E4" s="5">
+        <v>43715</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>201910043</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43716</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>201910045</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43716</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>202010001</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44086</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>202010007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E8" s="5">
+        <v>44089</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>202010011</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="5">
+        <v>44089</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>202010023</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44090</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>202110015</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4">
-        <v>201910024</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43715</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="5">
+        <v>44211</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>202110019</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="5">
+        <v>44211</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>202110020</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E13" s="5">
+        <v>44212</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>202110032</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E14" s="5">
+        <v>44213</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>202110036</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="5">
+        <v>44213</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <v>201910043</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43716</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>201910045</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F6" s="5">
-        <v>43716</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>202110041</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>202010001</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F7" s="5">
-        <v>44086</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>202010007</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F8" s="5">
-        <v>44089</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2">
-        <v>202010011</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F9" s="5">
-        <v>44089</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>202010023</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F10" s="5">
-        <v>44090</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="D16" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="5">
+        <v>44214</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2">
-        <v>202110015</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F11" s="5">
-        <v>44211</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2">
-        <v>202110019</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F12" s="5">
-        <v>44211</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2">
-        <v>202110020</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F13" s="5">
-        <v>44212</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2">
-        <v>202110032</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F14" s="5">
-        <v>44213</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2">
-        <v>202110036</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F15" s="5">
-        <v>44213</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2">
-        <v>202110041</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F16" s="5">
-        <v>44214</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1002,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,19 +1014,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,16 +1034,16 @@
         <v>10025012</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,16 +1051,16 @@
         <v>10025013</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,16 +1068,16 @@
         <v>20035005</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,16 +1085,16 @@
         <v>20035010</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,16 +1102,16 @@
         <v>30045005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1180,16 +1119,16 @@
         <v>30045013</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,16 +1136,16 @@
         <v>30045019</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,16 +1153,16 @@
         <v>40055011</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1231,16 +1170,16 @@
         <v>40055020</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1192,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,27 +1208,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
+      <c r="A2" s="2">
+        <v>140</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4">
         <v>30</v>
@@ -1302,11 +1241,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>63</v>
+      <c r="A3" s="2">
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
         <v>15</v>
@@ -1319,11 +1258,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
+      <c r="A4" s="2">
+        <v>170</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4">
         <v>30</v>
@@ -1336,11 +1275,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
+      <c r="A5" s="2">
+        <v>175</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <v>30</v>
@@ -1353,11 +1292,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
+      <c r="A6" s="2">
+        <v>211</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4">
         <v>30</v>
@@ -1370,11 +1309,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>74</v>
+      <c r="A7" s="2">
+        <v>212</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4">
         <v>30</v>
@@ -1387,11 +1326,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
+      <c r="A8" s="2">
+        <v>270</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4">
         <v>15</v>
@@ -1404,11 +1343,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
+      <c r="A9" s="2">
+        <v>301</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4">
         <v>30</v>
@@ -1421,11 +1360,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>70</v>
+      <c r="A10" s="2">
+        <v>302</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4">
         <v>30</v>
@@ -1438,11 +1377,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>69</v>
+      <c r="A11" s="2">
+        <v>340</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4">
         <v>15</v>
@@ -1455,11 +1394,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
+      <c r="A12" s="2">
+        <v>352</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4">
         <v>30</v>
@@ -1472,11 +1411,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>68</v>
+      <c r="A13" s="2">
+        <v>401</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4">
         <v>15</v>
@@ -1489,11 +1428,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
+      <c r="A14" s="2">
+        <v>406</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4">
         <v>15</v>
@@ -1506,11 +1445,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>66</v>
+      <c r="A15" s="2">
+        <v>475</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4">
         <v>30</v>
@@ -1523,11 +1462,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
+      <c r="A16" s="2">
+        <v>452</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4">
         <v>30</v>
@@ -1550,7 +1489,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,127 +1499,127 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
+      <c r="A2" s="2">
+        <v>140</v>
       </c>
       <c r="B2" s="4">
         <v>10025012</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>63</v>
+      <c r="A3" s="2">
+        <v>101</v>
       </c>
       <c r="B3" s="4">
         <v>10025012</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
+      <c r="A4" s="2">
+        <v>170</v>
       </c>
       <c r="B4" s="4">
         <v>10025013</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
+      <c r="A5" s="2">
+        <v>175</v>
       </c>
       <c r="B5" s="4">
         <v>20035005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
+      <c r="A6" s="2">
+        <v>211</v>
       </c>
       <c r="B6" s="4">
         <v>20035010</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>74</v>
+      <c r="A7" s="2">
+        <v>212</v>
       </c>
       <c r="B7" s="4">
         <v>20035010</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
+      <c r="A8" s="2">
+        <v>270</v>
       </c>
       <c r="B8" s="4">
         <v>30045005</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
+      <c r="A9" s="2">
+        <v>301</v>
       </c>
       <c r="B9" s="4">
         <v>30045013</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>70</v>
+      <c r="A10" s="2">
+        <v>302</v>
       </c>
       <c r="B10" s="4">
         <v>30045013</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>69</v>
+      <c r="A11" s="2">
+        <v>340</v>
       </c>
       <c r="B11" s="4">
         <v>10025012</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
+      <c r="A12" s="2">
+        <v>352</v>
       </c>
       <c r="B12" s="4">
         <v>30045019</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>68</v>
+      <c r="A13" s="2">
+        <v>401</v>
       </c>
       <c r="B13" s="4">
         <v>10025012</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
+      <c r="A14" s="2">
+        <v>406</v>
       </c>
       <c r="B14" s="4">
         <v>10025012</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>66</v>
+      <c r="A15" s="2">
+        <v>475</v>
       </c>
       <c r="B15" s="4">
         <v>40055011</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
+      <c r="A16" s="2">
+        <v>452</v>
       </c>
       <c r="B16" s="4">
         <v>40055020</v>
@@ -1695,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2664A00A-4231-4DCB-86EE-F23125282EBE}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1708,13 +1647,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,7 +1664,7 @@
         <v>201910045</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,7 +1675,7 @@
         <v>202110036</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,7 +1686,7 @@
         <v>202110041</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,7 +1697,7 @@
         <v>201910010</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,7 +1708,7 @@
         <v>202110019</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,7 +1719,7 @@
         <v>202010001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,7 +1730,7 @@
         <v>202010007</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1802,7 +1741,7 @@
         <v>201910017</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1813,7 +1752,7 @@
         <v>201910043</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1824,7 +1763,7 @@
         <v>202010011</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1835,7 +1774,7 @@
         <v>202110020</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1846,7 +1785,7 @@
         <v>202110032</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,7 +1796,7 @@
         <v>201910024</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1807,7 @@
         <v>202010023</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,7 +1818,7 @@
         <v>202110015</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1905,24 +1844,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
         <v>202110015</v>
@@ -1931,15 +1870,15 @@
         <v>370</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2">
         <v>202110019</v>
@@ -1948,15 +1887,15 @@
         <v>380</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2">
         <v>202110020</v>
@@ -1965,15 +1904,15 @@
         <v>375</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>202110032</v>
@@ -1982,15 +1921,15 @@
         <v>380</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2">
         <v>202110036</v>
@@ -1999,15 +1938,15 @@
         <v>370</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>202110041</v>
@@ -2016,15 +1955,15 @@
         <v>350</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2">
         <v>202110015</v>
@@ -2033,15 +1972,15 @@
         <v>190</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2">
         <v>202110019</v>
@@ -2050,15 +1989,15 @@
         <v>150</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2">
         <v>202110020</v>
@@ -2067,15 +2006,15 @@
         <v>160</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2">
         <v>202110032</v>
@@ -2084,15 +2023,15 @@
         <v>160</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2">
         <v>202110036</v>
@@ -2101,15 +2040,15 @@
         <v>190</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2">
         <v>202110041</v>
@@ -2118,15 +2057,15 @@
         <v>180</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2">
         <v>202110015</v>
@@ -2135,15 +2074,15 @@
         <v>240</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2">
         <v>202110019</v>
@@ -2152,15 +2091,15 @@
         <v>270</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2">
         <v>202110020</v>
@@ -2169,15 +2108,15 @@
         <v>260</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2">
         <v>202110032</v>
@@ -2186,15 +2125,15 @@
         <v>290</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2">
         <v>202110036</v>
@@ -2203,15 +2142,15 @@
         <v>280</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2">
         <v>202110041</v>
@@ -2220,15 +2159,15 @@
         <v>290</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2">
         <v>202110015</v>
@@ -2237,15 +2176,15 @@
         <v>180</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2">
         <v>202110019</v>
@@ -2254,15 +2193,15 @@
         <v>180</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2">
         <v>202110020</v>
@@ -2271,15 +2210,15 @@
         <v>160</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2">
         <v>202110032</v>
@@ -2288,15 +2227,15 @@
         <v>170</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2">
         <v>202110036</v>
@@ -2305,15 +2244,15 @@
         <v>160</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2">
         <v>202110041</v>
@@ -2322,15 +2261,15 @@
         <v>180</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2">
         <v>202010001</v>
@@ -2339,15 +2278,15 @@
         <v>300</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2">
         <v>202010007</v>
@@ -2356,15 +2295,15 @@
         <v>290</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2">
         <v>202010011</v>
@@ -2373,15 +2312,15 @@
         <v>280</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2">
         <v>202010023</v>
@@ -2390,15 +2329,15 @@
         <v>290</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>202010001</v>
@@ -2407,15 +2346,15 @@
         <v>350</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2">
         <v>202010007</v>
@@ -2424,15 +2363,15 @@
         <v>370</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2">
         <v>202010011</v>
@@ -2441,15 +2380,15 @@
         <v>390</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2">
         <v>202010023</v>
@@ -2458,15 +2397,15 @@
         <v>400</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2">
         <v>202010001</v>
@@ -2475,15 +2414,15 @@
         <v>180</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2">
         <v>202010007</v>
@@ -2492,15 +2431,15 @@
         <v>190</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2">
         <v>202010011</v>
@@ -2509,15 +2448,15 @@
         <v>180</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2">
         <v>202010023</v>
@@ -2526,15 +2465,15 @@
         <v>160</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4">
         <v>201910010</v>
@@ -2543,15 +2482,15 @@
         <v>250</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="4">
         <v>201910017</v>
@@ -2560,15 +2499,15 @@
         <v>270</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4">
         <v>201910024</v>
@@ -2577,15 +2516,15 @@
         <v>280</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="4">
         <v>201910043</v>
@@ -2594,15 +2533,15 @@
         <v>280</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="4">
         <v>201910045</v>
@@ -2611,15 +2550,15 @@
         <v>270</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B43" s="4">
         <v>201910010</v>
@@ -2628,15 +2567,15 @@
         <v>280</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B44" s="4">
         <v>201910017</v>
@@ -2645,15 +2584,15 @@
         <v>260</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B45" s="4">
         <v>201910024</v>
@@ -2662,15 +2601,15 @@
         <v>300</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B46" s="4">
         <v>201910043</v>
@@ -2679,15 +2618,15 @@
         <v>290</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B47" s="4">
         <v>201910045</v>
@@ -2696,15 +2635,15 @@
         <v>270</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B48" s="4">
         <v>201910010</v>
@@ -2713,15 +2652,15 @@
         <v>90</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4">
         <v>201910017</v>
@@ -2730,15 +2669,15 @@
         <v>90</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B50" s="4">
         <v>201910024</v>
@@ -2747,15 +2686,15 @@
         <v>70</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B51" s="4">
         <v>201910043</v>
@@ -2764,15 +2703,15 @@
         <v>80</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B52" s="4">
         <v>201910045</v>
@@ -2781,15 +2720,15 @@
         <v>90</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="4">
         <v>201910010</v>
@@ -2798,15 +2737,15 @@
         <v>280</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4">
         <v>201910017</v>
@@ -2815,15 +2754,15 @@
         <v>260</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4">
         <v>201910024</v>
@@ -2832,15 +2771,15 @@
         <v>290</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4">
         <v>201910043</v>
@@ -2849,15 +2788,15 @@
         <v>270</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4">
         <v>201910045</v>
@@ -2866,10 +2805,10 @@
         <v>280</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Project/University Project/Excel University.xlsx
+++ b/Project/University Project/Excel University.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e_kur\Documents\Clarusway\Database-Modelling-And-Design\Project\University Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B2B4D4-2AA9-4DCD-A9C3-BF2B54EEC01A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB342A-348F-424B-B2B2-8EAB4150C933}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1080" windowWidth="20925" windowHeight="13305" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="1080" windowWidth="20925" windowHeight="13305" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="83">
   <si>
     <t>Student ID</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Homework</t>
   </si>
   <si>
-    <t>Staff ID</t>
-  </si>
-  <si>
     <t>Job</t>
   </si>
   <si>
@@ -203,57 +200,24 @@
     <t>C++</t>
   </si>
   <si>
-    <t>EEE 352</t>
-  </si>
-  <si>
-    <t>EEE 301</t>
-  </si>
-  <si>
-    <t>EEE 270</t>
-  </si>
-  <si>
-    <t>EEE 140</t>
-  </si>
-  <si>
-    <t>EEE 101</t>
-  </si>
-  <si>
     <t>Digital Analysis</t>
   </si>
   <si>
     <t>High Voltage</t>
   </si>
   <si>
-    <t>EEE 340</t>
-  </si>
-  <si>
-    <t>EEE 302</t>
-  </si>
-  <si>
     <t>Electric Motor-I</t>
   </si>
   <si>
     <t>Electric Motor-II</t>
   </si>
   <si>
-    <t>EEE 170</t>
-  </si>
-  <si>
-    <t>EEE 212</t>
-  </si>
-  <si>
-    <t>EEE 211</t>
-  </si>
-  <si>
     <t>Electronic-I</t>
   </si>
   <si>
     <t>Electronic_II</t>
   </si>
   <si>
-    <t>EEE 175</t>
-  </si>
-  <si>
     <t>Analog Filter</t>
   </si>
   <si>
@@ -309,6 +273,12 @@
   </si>
   <si>
     <t>StaffID</t>
+  </si>
+  <si>
+    <t>CourseID</t>
+  </si>
+  <si>
+    <t>StudentID</t>
   </si>
 </sst>
 </file>
@@ -658,9 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -674,7 +642,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -897,10 +865,10 @@
         <v>202110019</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="4">
         <v>2021</v>
@@ -917,10 +885,10 @@
         <v>202110020</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="4">
         <v>2021</v>
@@ -937,10 +905,10 @@
         <v>202110032</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4">
         <v>2021</v>
@@ -957,10 +925,10 @@
         <v>202110036</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D15" s="4">
         <v>2021</v>
@@ -977,7 +945,7 @@
         <v>202110041</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1014,7 +982,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1026,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,16 +1002,16 @@
         <v>10025012</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,16 +1019,16 @@
         <v>10025013</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,16 +1036,16 @@
         <v>20035005</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,16 +1053,16 @@
         <v>20035010</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,16 +1070,16 @@
         <v>30045005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,16 +1087,16 @@
         <v>30045013</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,16 +1104,16 @@
         <v>30045019</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,16 +1121,16 @@
         <v>40055011</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,16 +1138,16 @@
         <v>40055020</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1160,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1176,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1220,7 +1188,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,7 +1196,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4">
         <v>30</v>
@@ -1245,7 +1213,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4">
         <v>15</v>
@@ -1262,7 +1230,7 @@
         <v>170</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4">
         <v>30</v>
@@ -1279,7 +1247,7 @@
         <v>175</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4">
         <v>30</v>
@@ -1296,7 +1264,7 @@
         <v>211</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4">
         <v>30</v>
@@ -1313,7 +1281,7 @@
         <v>212</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4">
         <v>30</v>
@@ -1330,7 +1298,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4">
         <v>15</v>
@@ -1347,7 +1315,7 @@
         <v>301</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <v>30</v>
@@ -1364,7 +1332,7 @@
         <v>302</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4">
         <v>30</v>
@@ -1381,7 +1349,7 @@
         <v>340</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4">
         <v>15</v>
@@ -1398,7 +1366,7 @@
         <v>352</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4">
         <v>30</v>
@@ -1415,7 +1383,7 @@
         <v>401</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4">
         <v>15</v>
@@ -1432,7 +1400,7 @@
         <v>406</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4">
         <v>15</v>
@@ -1449,7 +1417,7 @@
         <v>475</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4">
         <v>30</v>
@@ -1466,7 +1434,7 @@
         <v>452</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4">
         <v>30</v>
@@ -1634,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2664A00A-4231-4DCB-86EE-F23125282EBE}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,13 +1615,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,7 +1709,7 @@
         <v>201910017</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1720,7 @@
         <v>201910043</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,7 +1731,7 @@
         <v>202010011</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1742,7 @@
         <v>202110020</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,7 +1753,7 @@
         <v>202110032</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E1C3E8-5D87-47B1-8F6D-EB3154AB48FD}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M15:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,13 +1812,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -1860,8 +1828,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
+      <c r="A2" s="2">
+        <v>140</v>
       </c>
       <c r="B2" s="2">
         <v>202110015</v>
@@ -1877,8 +1845,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
+      <c r="A3" s="2">
+        <v>140</v>
       </c>
       <c r="B3" s="2">
         <v>202110019</v>
@@ -1887,15 +1855,15 @@
         <v>380</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
+      <c r="A4" s="2">
+        <v>140</v>
       </c>
       <c r="B4" s="2">
         <v>202110020</v>
@@ -1904,15 +1872,15 @@
         <v>375</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>60</v>
+      <c r="A5" s="2">
+        <v>140</v>
       </c>
       <c r="B5" s="2">
         <v>202110032</v>
@@ -1921,15 +1889,15 @@
         <v>380</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>60</v>
+      <c r="A6" s="2">
+        <v>140</v>
       </c>
       <c r="B6" s="2">
         <v>202110036</v>
@@ -1938,15 +1906,15 @@
         <v>370</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
+      <c r="A7" s="2">
+        <v>140</v>
       </c>
       <c r="B7" s="2">
         <v>202110041</v>
@@ -1955,15 +1923,15 @@
         <v>350</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
+      <c r="A8" s="2">
+        <v>101</v>
       </c>
       <c r="B8" s="2">
         <v>202110015</v>
@@ -1979,8 +1947,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
+      <c r="A9" s="2">
+        <v>101</v>
       </c>
       <c r="B9" s="2">
         <v>202110019</v>
@@ -1989,15 +1957,15 @@
         <v>150</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>61</v>
+      <c r="A10" s="2">
+        <v>101</v>
       </c>
       <c r="B10" s="2">
         <v>202110020</v>
@@ -2006,15 +1974,15 @@
         <v>160</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>61</v>
+      <c r="A11" s="2">
+        <v>101</v>
       </c>
       <c r="B11" s="2">
         <v>202110032</v>
@@ -2023,15 +1991,15 @@
         <v>160</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>61</v>
+      <c r="A12" s="2">
+        <v>101</v>
       </c>
       <c r="B12" s="2">
         <v>202110036</v>
@@ -2040,15 +2008,15 @@
         <v>190</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
+      <c r="A13" s="2">
+        <v>101</v>
       </c>
       <c r="B13" s="2">
         <v>202110041</v>
@@ -2057,15 +2025,15 @@
         <v>180</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>68</v>
+      <c r="A14" s="2">
+        <v>170</v>
       </c>
       <c r="B14" s="2">
         <v>202110015</v>
@@ -2081,8 +2049,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>68</v>
+      <c r="A15" s="2">
+        <v>170</v>
       </c>
       <c r="B15" s="2">
         <v>202110019</v>
@@ -2091,15 +2059,15 @@
         <v>270</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
+      <c r="A16" s="2">
+        <v>170</v>
       </c>
       <c r="B16" s="2">
         <v>202110020</v>
@@ -2108,15 +2076,15 @@
         <v>260</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>68</v>
+      <c r="A17" s="2">
+        <v>170</v>
       </c>
       <c r="B17" s="2">
         <v>202110032</v>
@@ -2125,15 +2093,15 @@
         <v>290</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
+      <c r="A18" s="2">
+        <v>170</v>
       </c>
       <c r="B18" s="2">
         <v>202110036</v>
@@ -2142,15 +2110,15 @@
         <v>280</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>68</v>
+      <c r="A19" s="2">
+        <v>170</v>
       </c>
       <c r="B19" s="2">
         <v>202110041</v>
@@ -2159,15 +2127,15 @@
         <v>290</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>73</v>
+      <c r="A20" s="2">
+        <v>175</v>
       </c>
       <c r="B20" s="2">
         <v>202110015</v>
@@ -2183,8 +2151,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>73</v>
+      <c r="A21" s="2">
+        <v>175</v>
       </c>
       <c r="B21" s="2">
         <v>202110019</v>
@@ -2193,15 +2161,15 @@
         <v>180</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>73</v>
+      <c r="A22" s="2">
+        <v>175</v>
       </c>
       <c r="B22" s="2">
         <v>202110020</v>
@@ -2210,15 +2178,15 @@
         <v>160</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
+      <c r="A23" s="2">
+        <v>175</v>
       </c>
       <c r="B23" s="2">
         <v>202110032</v>
@@ -2227,15 +2195,15 @@
         <v>170</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>73</v>
+      <c r="A24" s="2">
+        <v>175</v>
       </c>
       <c r="B24" s="2">
         <v>202110036</v>
@@ -2244,15 +2212,15 @@
         <v>160</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>73</v>
+      <c r="A25" s="2">
+        <v>175</v>
       </c>
       <c r="B25" s="2">
         <v>202110041</v>
@@ -2261,15 +2229,15 @@
         <v>180</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>70</v>
+      <c r="A26" s="2">
+        <v>211</v>
       </c>
       <c r="B26" s="2">
         <v>202010001</v>
@@ -2285,8 +2253,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>70</v>
+      <c r="A27" s="2">
+        <v>211</v>
       </c>
       <c r="B27" s="2">
         <v>202010007</v>
@@ -2302,8 +2270,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>70</v>
+      <c r="A28" s="2">
+        <v>211</v>
       </c>
       <c r="B28" s="2">
         <v>202010011</v>
@@ -2319,8 +2287,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>70</v>
+      <c r="A29" s="2">
+        <v>211</v>
       </c>
       <c r="B29" s="2">
         <v>202010023</v>
@@ -2336,8 +2304,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>69</v>
+      <c r="A30" s="2">
+        <v>212</v>
       </c>
       <c r="B30" s="2">
         <v>202010001</v>
@@ -2353,8 +2321,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>69</v>
+      <c r="A31" s="2">
+        <v>212</v>
       </c>
       <c r="B31" s="2">
         <v>202010007</v>
@@ -2370,8 +2338,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>69</v>
+      <c r="A32" s="2">
+        <v>212</v>
       </c>
       <c r="B32" s="2">
         <v>202010011</v>
@@ -2387,8 +2355,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>69</v>
+      <c r="A33" s="2">
+        <v>212</v>
       </c>
       <c r="B33" s="2">
         <v>202010023</v>
@@ -2404,8 +2372,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>59</v>
+      <c r="A34" s="2">
+        <v>270</v>
       </c>
       <c r="B34" s="2">
         <v>202010001</v>
@@ -2421,8 +2389,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>59</v>
+      <c r="A35" s="2">
+        <v>270</v>
       </c>
       <c r="B35" s="2">
         <v>202010007</v>
@@ -2438,8 +2406,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>59</v>
+      <c r="A36" s="2">
+        <v>270</v>
       </c>
       <c r="B36" s="2">
         <v>202010011</v>
@@ -2455,8 +2423,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>59</v>
+      <c r="A37" s="2">
+        <v>270</v>
       </c>
       <c r="B37" s="2">
         <v>202010023</v>
@@ -2472,8 +2440,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>58</v>
+      <c r="A38" s="2">
+        <v>301</v>
       </c>
       <c r="B38" s="4">
         <v>201910010</v>
@@ -2489,8 +2457,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>58</v>
+      <c r="A39" s="2">
+        <v>301</v>
       </c>
       <c r="B39" s="4">
         <v>201910017</v>
@@ -2506,8 +2474,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>58</v>
+      <c r="A40" s="2">
+        <v>301</v>
       </c>
       <c r="B40" s="4">
         <v>201910024</v>
@@ -2523,8 +2491,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>58</v>
+      <c r="A41" s="2">
+        <v>301</v>
       </c>
       <c r="B41" s="4">
         <v>201910043</v>
@@ -2540,8 +2508,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>58</v>
+      <c r="A42" s="2">
+        <v>301</v>
       </c>
       <c r="B42" s="4">
         <v>201910045</v>
@@ -2557,8 +2525,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>65</v>
+      <c r="A43" s="2">
+        <v>302</v>
       </c>
       <c r="B43" s="4">
         <v>201910010</v>
@@ -2574,8 +2542,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>65</v>
+      <c r="A44" s="2">
+        <v>302</v>
       </c>
       <c r="B44" s="4">
         <v>201910017</v>
@@ -2591,8 +2559,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>65</v>
+      <c r="A45" s="2">
+        <v>302</v>
       </c>
       <c r="B45" s="4">
         <v>201910024</v>
@@ -2608,8 +2576,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>65</v>
+      <c r="A46" s="2">
+        <v>302</v>
       </c>
       <c r="B46" s="4">
         <v>201910043</v>
@@ -2625,8 +2593,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>65</v>
+      <c r="A47" s="2">
+        <v>302</v>
       </c>
       <c r="B47" s="4">
         <v>201910045</v>
@@ -2642,8 +2610,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>64</v>
+      <c r="A48" s="2">
+        <v>340</v>
       </c>
       <c r="B48" s="4">
         <v>201910010</v>
@@ -2659,8 +2627,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>64</v>
+      <c r="A49" s="2">
+        <v>340</v>
       </c>
       <c r="B49" s="4">
         <v>201910017</v>
@@ -2676,8 +2644,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>64</v>
+      <c r="A50" s="2">
+        <v>340</v>
       </c>
       <c r="B50" s="4">
         <v>201910024</v>
@@ -2693,8 +2661,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>64</v>
+      <c r="A51" s="2">
+        <v>340</v>
       </c>
       <c r="B51" s="4">
         <v>201910043</v>
@@ -2710,8 +2678,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>64</v>
+      <c r="A52" s="2">
+        <v>340</v>
       </c>
       <c r="B52" s="4">
         <v>201910045</v>
@@ -2727,8 +2695,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>57</v>
+      <c r="A53" s="2">
+        <v>352</v>
       </c>
       <c r="B53" s="4">
         <v>201910010</v>
@@ -2744,8 +2712,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>57</v>
+      <c r="A54" s="2">
+        <v>352</v>
       </c>
       <c r="B54" s="4">
         <v>201910017</v>
@@ -2761,8 +2729,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>57</v>
+      <c r="A55" s="2">
+        <v>352</v>
       </c>
       <c r="B55" s="4">
         <v>201910024</v>
@@ -2778,8 +2746,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>57</v>
+      <c r="A56" s="2">
+        <v>352</v>
       </c>
       <c r="B56" s="4">
         <v>201910043</v>
@@ -2795,8 +2763,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>57</v>
+      <c r="A57" s="2">
+        <v>352</v>
       </c>
       <c r="B57" s="4">
         <v>201910045</v>
